--- a/biology/Zoologie/Chenistonia_trevallynia/Chenistonia_trevallynia.xlsx
+++ b/biology/Zoologie/Chenistonia_trevallynia/Chenistonia_trevallynia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chenistonia trevallynia est une espèce d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chenistonia trevallynia est une espèce d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle syntype mesure 4,9 mm de long sur 3,7 mm et l'abdomen 4,3 mm de long sur 2,8 mm et la carapace de la femelle syntype mesure 4,4 mm de long sur 3,4 mm et l'abdomen 6,4 mm de long sur 4,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle syntype mesure 4,9 mm de long sur 3,7 mm et l'abdomen 4,3 mm de long sur 2,8 mm et la carapace de la femelle syntype mesure 4,4 mm de long sur 3,4 mm et l'abdomen 6,4 mm de long sur 4,3 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Trevallyn.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hickman, 1926 : Notes on Tasmanian Araneidae (with descriptions of a new species). Papers and Proceedings of the Royal Society of Tasmania, vol. 1925, p. 171-186.</t>
         </is>
